--- a/data/trans_orig/P1803-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0BC4A4-672A-4797-AEDD-9E4BDFE359D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD78342-B74C-4508-B201-E2CC0082BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF763C2A-6A2E-49A6-ABDC-0E97D185C488}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAA8DE26-9ECD-42CC-93E4-7CE927ADD657}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="334">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>7,64%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,10 +138,10 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -150,676 +150,706 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>13,6%</t>
@@ -828,31 +858,31 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>16,96%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>82,77%</t>
+    <t>83,04%</t>
   </si>
   <si>
     <t>89,58%</t>
@@ -861,106 +891,106 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>72,88%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>9,55%</t>
@@ -969,31 +999,28 @@
     <t>7,78%</t>
   </si>
   <si>
-    <t>14,53%</t>
+    <t>15,02%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>11,99%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>85,47%</t>
+    <t>84,98%</t>
   </si>
   <si>
     <t>92,22%</t>
@@ -1002,19 +1029,16 @@
     <t>90,37%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>88,01%</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F23BAF4-8408-487A-A94F-D8A7A65614EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366BDA70-FC94-480E-BA78-5E342EC75B0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1893,10 +1917,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1935,13 @@
         <v>313307</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -1926,13 +1950,13 @@
         <v>329220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>655</v>
@@ -1941,13 +1965,13 @@
         <v>642526</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,7 +2027,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2015,13 +2039,13 @@
         <v>28204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2030,13 +2054,13 @@
         <v>26570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2045,13 +2069,13 @@
         <v>54773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2090,13 @@
         <v>341760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -2081,13 +2105,13 @@
         <v>360713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>661</v>
@@ -2096,13 +2120,13 @@
         <v>702474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,7 +2182,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2170,13 +2194,13 @@
         <v>4534</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2185,13 +2209,13 @@
         <v>8337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2200,13 +2224,13 @@
         <v>12871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2245,13 @@
         <v>206687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -2236,13 +2260,13 @@
         <v>210250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -2251,13 +2275,13 @@
         <v>416937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2337,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2325,13 +2349,13 @@
         <v>19912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2340,13 +2364,13 @@
         <v>12077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2355,13 +2379,13 @@
         <v>31988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2400,7 @@
         <v>243211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>116</v>
@@ -2638,10 +2662,10 @@
         <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2650,13 +2674,13 @@
         <v>55300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2665,13 +2689,13 @@
         <v>86025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2710,13 @@
         <v>747858</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -2701,13 +2725,13 @@
         <v>770867</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1428</v>
@@ -2716,13 +2740,13 @@
         <v>1518725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2814,13 @@
         <v>155505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -2805,13 +2829,13 @@
         <v>195706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>323</v>
@@ -2820,13 +2844,13 @@
         <v>351211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2865,13 @@
         <v>3238845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3157</v>
@@ -2856,13 +2880,13 @@
         <v>3348836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6246</v>
@@ -2871,13 +2895,13 @@
         <v>6587681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2957,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3132E-04C4-4D40-AE3C-386C11637F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA940F-CF81-4117-B34F-14FC90812063}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3081,13 +3105,13 @@
         <v>38753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -3096,13 +3120,13 @@
         <v>57750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -3111,13 +3135,13 @@
         <v>96503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3156,13 @@
         <v>221545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>433</v>
@@ -3147,13 +3171,13 @@
         <v>213653</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>717</v>
@@ -3162,13 +3186,13 @@
         <v>435197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3260,13 @@
         <v>30424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3251,13 +3275,13 @@
         <v>46445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -3266,13 +3290,13 @@
         <v>76869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3311,13 @@
         <v>488873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -3302,13 +3326,13 @@
         <v>506771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -3317,13 +3341,13 @@
         <v>995645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3415,13 @@
         <v>34256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3406,13 +3430,13 @@
         <v>45371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -3421,13 +3445,13 @@
         <v>79627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3466,13 @@
         <v>287984</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>471</v>
@@ -3457,13 +3481,13 @@
         <v>327369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -3472,13 +3496,13 @@
         <v>615353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3558,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3570,13 @@
         <v>35645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3561,13 +3585,13 @@
         <v>47063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -3576,13 +3600,13 @@
         <v>82708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3621,13 @@
         <v>286595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3612,13 +3636,13 @@
         <v>381493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>782</v>
@@ -3627,13 +3651,13 @@
         <v>668088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3713,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3701,13 +3725,13 @@
         <v>8325</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3716,13 +3740,13 @@
         <v>6879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3731,13 +3755,13 @@
         <v>15203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3776,13 @@
         <v>188423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>478</v>
@@ -3767,13 +3791,13 @@
         <v>225024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3782,13 +3806,13 @@
         <v>413448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3868,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3856,13 +3880,13 @@
         <v>23894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3871,13 +3895,13 @@
         <v>37478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -3886,13 +3910,13 @@
         <v>61372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3931,13 @@
         <v>253329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -3922,13 +3946,13 @@
         <v>238144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>740</v>
@@ -3937,13 +3961,13 @@
         <v>491473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4035,13 @@
         <v>82202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -4026,13 +4050,13 @@
         <v>105187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4041,13 +4065,13 @@
         <v>187389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4086,13 @@
         <v>545552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -4077,13 +4101,13 @@
         <v>699016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>1337</v>
@@ -4092,13 +4116,13 @@
         <v>1244568</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4190,13 @@
         <v>69792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4181,13 +4205,13 @@
         <v>20200</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -4196,13 +4220,13 @@
         <v>89992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4241,13 @@
         <v>789636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>1034</v>
@@ -4232,13 +4256,13 @@
         <v>848234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>1780</v>
@@ -4247,13 +4271,13 @@
         <v>1637870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4345,13 @@
         <v>323291</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>551</v>
@@ -4336,13 +4360,13 @@
         <v>366373</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -4351,13 +4375,13 @@
         <v>689664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4396,13 @@
         <v>3061937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>4810</v>
@@ -4387,13 +4411,13 @@
         <v>3439705</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>7923</v>
@@ -4402,13 +4426,13 @@
         <v>6501642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4488,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1803-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD78342-B74C-4508-B201-E2CC0082BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9135C25B-7D0D-4550-8EFF-8D84844BA732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAA8DE26-9ECD-42CC-93E4-7CE927ADD657}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62048A2C-124B-498F-BCBF-1A93CB516189}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="334">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="328">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>7,64%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>92,36%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,445 +138,433 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,9 +744,6 @@
     <t>15,87%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
     <t>8,49%</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
   </si>
   <si>
     <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
   </si>
   <si>
     <t>85,87%</t>
@@ -1450,7 +1432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366BDA70-FC94-480E-BA78-5E342EC75B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CEF536-0BDB-44D0-B4B6-8D9407533808}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2200,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2209,13 +2191,13 @@
         <v>8337</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2224,13 +2206,13 @@
         <v>12871</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2227,13 @@
         <v>206687</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -2260,13 +2242,13 @@
         <v>210250</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>422</v>
@@ -2275,13 +2257,13 @@
         <v>416937</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2319,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2349,13 +2331,13 @@
         <v>19912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2364,13 +2346,13 @@
         <v>12077</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2379,13 +2361,13 @@
         <v>31988</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,7 +2382,7 @@
         <v>243211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>116</v>
@@ -2522,10 +2504,10 @@
         <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -2534,13 +2516,13 @@
         <v>72868</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2537,13 @@
         <v>622693</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>611</v>
@@ -2570,13 +2552,13 @@
         <v>652291</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>1162</v>
@@ -2585,13 +2567,13 @@
         <v>1274984</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2629,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2659,13 +2641,13 @@
         <v>30725</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2674,13 +2656,13 @@
         <v>55300</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -2689,13 +2671,13 @@
         <v>86025</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2692,13 @@
         <v>747858</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>706</v>
@@ -2725,13 +2707,13 @@
         <v>770867</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1428</v>
@@ -2740,13 +2722,13 @@
         <v>1518725</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2796,13 @@
         <v>155505</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>181</v>
@@ -2829,13 +2811,13 @@
         <v>195706</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>323</v>
@@ -2844,13 +2826,13 @@
         <v>351211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2847,13 @@
         <v>3238845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>3157</v>
@@ -2880,13 +2862,13 @@
         <v>3348836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6246</v>
@@ -2895,13 +2877,13 @@
         <v>6587681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2939,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBA940F-CF81-4117-B34F-14FC90812063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C8B6B5-817A-4259-99A4-C5AD7DCA7544}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2998,7 +2980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3105,13 +3087,13 @@
         <v>38753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -3120,13 +3102,13 @@
         <v>57750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -3135,13 +3117,13 @@
         <v>96503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3138,13 @@
         <v>221545</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>433</v>
@@ -3171,13 +3153,13 @@
         <v>213653</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>717</v>
@@ -3186,13 +3168,13 @@
         <v>435197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3242,13 @@
         <v>30424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -3275,13 +3257,13 @@
         <v>46445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -3290,13 +3272,13 @@
         <v>76869</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3293,13 @@
         <v>488873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -3326,13 +3308,13 @@
         <v>506771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -3341,13 +3323,13 @@
         <v>995645</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3397,13 @@
         <v>34256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -3430,13 +3412,13 @@
         <v>45371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -3445,13 +3427,13 @@
         <v>79627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3448,13 @@
         <v>287984</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>471</v>
@@ -3481,13 +3463,13 @@
         <v>327369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -3496,13 +3478,13 @@
         <v>615353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3552,13 @@
         <v>35645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3585,13 +3567,13 @@
         <v>47063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -3600,13 +3582,13 @@
         <v>82708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3603,13 @@
         <v>286595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3636,13 +3618,13 @@
         <v>381493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>782</v>
@@ -3651,13 +3633,13 @@
         <v>668088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3707,13 @@
         <v>8325</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3740,13 +3722,13 @@
         <v>6879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3755,13 +3737,13 @@
         <v>15203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3758,13 @@
         <v>188423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>478</v>
@@ -3791,13 +3773,13 @@
         <v>225024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -3806,13 +3788,13 @@
         <v>413448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3850,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3880,13 +3862,13 @@
         <v>23894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3895,13 +3877,13 @@
         <v>37478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -3910,13 +3892,13 @@
         <v>61372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3913,13 @@
         <v>253329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -3946,13 +3928,13 @@
         <v>238144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>740</v>
@@ -3961,13 +3943,13 @@
         <v>491473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4017,13 @@
         <v>82202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -4050,13 +4032,13 @@
         <v>105187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4065,13 +4047,13 @@
         <v>187389</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4068,13 @@
         <v>545552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -4101,13 +4083,13 @@
         <v>699016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1337</v>
@@ -4116,13 +4098,13 @@
         <v>1244568</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,7 +4160,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4190,13 +4172,13 @@
         <v>69792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4205,13 +4187,13 @@
         <v>20200</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -4220,13 +4202,13 @@
         <v>89992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4223,13 @@
         <v>789636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H26" s="7">
         <v>1034</v>
@@ -4256,13 +4238,13 @@
         <v>848234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1780</v>
@@ -4271,13 +4253,13 @@
         <v>1637870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>323291</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>551</v>
@@ -4360,13 +4342,13 @@
         <v>366373</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>814</v>
@@ -4375,13 +4357,13 @@
         <v>689664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4378,13 @@
         <v>3061937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>4810</v>
@@ -4411,13 +4393,13 @@
         <v>3439705</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>7923</v>
@@ -4426,13 +4408,13 @@
         <v>6501642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4470,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1803-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1803-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBEE4AFE-5113-46FA-BD80-BB2C785B2B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6576F215-4FC3-4450-BB2F-99FD96B0835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0D469C4-EC50-4A7D-B43C-87F69E5C92D3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E7B32B8B-3818-499D-BEE2-5AADDF1FAFE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="423">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población según si en los últimos 12 meses han visitado un fisioterapeuta en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -434,9 +455,6 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
     <t>3,39%</t>
   </si>
   <si>
@@ -461,9 +479,6 @@
     <t>96,61%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
@@ -800,265 +815,280 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1067,109 +1097,115 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -1178,49 +1214,37 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>16,82%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -1232,58 +1256,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA2E4B8-9B2B-424B-905E-7A5BF4A1A4B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB081E1B-876C-4D3D-923D-8E45E1977DBC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3464,7 +3488,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -3479,7 +3503,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -3494,7 +3518,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3617,7 +3641,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3632,7 +3656,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3647,7 +3671,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3685,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA4A86-A264-4E35-8E23-05B6C5861730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B93CE4-DD79-470A-AE37-8ADEEEC81FCB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3803,43 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,41 +3880,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,41 +3931,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,43 +3980,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4057,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -4063,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4114,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4200,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -4215,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -4254,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4269,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4305,7 +4353,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4320,7 +4368,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4397,46 +4445,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4460,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4475,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4490,7 +4538,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4559,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4526,7 +4574,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4541,7 +4589,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4565,10 +4613,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4580,10 +4628,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4612,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4627,7 +4675,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4666,7 +4714,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4681,7 +4729,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4717,7 +4765,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4732,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4818,7 +4866,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4872,7 +4920,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4923,7 +4971,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5054,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5108,7 +5156,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5207,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -5245,7 +5293,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -5284,7 +5332,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5299,7 +5347,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -5335,7 +5383,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5350,7 +5398,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5651,7 +5699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5DDF26-C5E6-42EB-A130-D8B098BCCC61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F42A2F-4688-4537-978B-2FC21338FDB0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5668,7 +5716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5796,7 +5844,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5811,7 +5859,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5874,13 @@
         <v>22436</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5841,13 +5889,13 @@
         <v>33319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -5856,13 +5904,13 @@
         <v>55755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5925,13 @@
         <v>271325</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -5892,13 +5940,13 @@
         <v>255384</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>489</v>
@@ -5907,13 +5955,13 @@
         <v>526709</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6035,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6002,7 +6050,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6032,13 +6080,13 @@
         <v>10571</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6047,13 +6095,13 @@
         <v>14012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -6062,13 +6110,13 @@
         <v>24583</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6131,13 @@
         <v>492004</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>471</v>
@@ -6098,13 +6146,13 @@
         <v>509072</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>937</v>
@@ -6113,13 +6161,13 @@
         <v>1001076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6256,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6223,7 +6271,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6286,13 @@
         <v>5258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -6253,13 +6301,13 @@
         <v>7089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6268,13 +6316,13 @@
         <v>12348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6337,13 @@
         <v>313307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -6304,13 +6352,13 @@
         <v>329220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>655</v>
@@ -6319,13 +6367,13 @@
         <v>642526</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6447,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6429,7 +6477,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6492,13 @@
         <v>28204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -6459,13 +6507,13 @@
         <v>26570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -6474,13 +6522,13 @@
         <v>54773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6543,13 @@
         <v>341760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>333</v>
@@ -6510,13 +6558,13 @@
         <v>360713</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>661</v>
@@ -6525,13 +6573,13 @@
         <v>702474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6653,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6620,7 +6668,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6635,7 +6683,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6698,13 @@
         <v>4534</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -6665,13 +6713,13 @@
         <v>8337</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6680,13 +6728,13 @@
         <v>12871</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,10 +6749,10 @@
         <v>206687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -6716,13 +6764,13 @@
         <v>210250</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>422</v>
@@ -6731,13 +6779,13 @@
         <v>416937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,7 +6859,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6826,7 +6874,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6856,13 +6904,13 @@
         <v>19912</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6871,13 +6919,13 @@
         <v>12077</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -6886,13 +6934,13 @@
         <v>31988</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6955,13 @@
         <v>243211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7">
         <v>251</v>
@@ -6922,13 +6970,13 @@
         <v>261038</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>492</v>
@@ -6937,13 +6985,13 @@
         <v>504250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7065,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7062,13 +7110,13 @@
         <v>33865</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -7077,13 +7125,13 @@
         <v>39003</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -7092,13 +7140,13 @@
         <v>72868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7161,13 @@
         <v>622693</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>611</v>
@@ -7128,13 +7176,13 @@
         <v>652291</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>1162</v>
@@ -7143,13 +7191,13 @@
         <v>1274984</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7286,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7268,13 +7316,13 @@
         <v>30725</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H33" s="7">
         <v>49</v>
@@ -7283,13 +7331,13 @@
         <v>55300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>77</v>
@@ -7298,13 +7346,13 @@
         <v>86025</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7367,13 @@
         <v>747858</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H34" s="7">
         <v>706</v>
@@ -7334,13 +7382,13 @@
         <v>770867</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>1428</v>
@@ -7349,13 +7397,13 @@
         <v>1518725</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7522,13 @@
         <v>155505</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>181</v>
@@ -7489,13 +7537,13 @@
         <v>195706</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>323</v>
@@ -7504,13 +7552,13 @@
         <v>351211</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7573,13 @@
         <v>3238845</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>3157</v>
@@ -7540,13 +7588,13 @@
         <v>3348836</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>6246</v>
@@ -7555,13 +7603,13 @@
         <v>6587681</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,7 +7689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82865B9-82AB-4453-9B81-F982835CB977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BAB8E3-F1E2-4E3B-86E4-E98A08677793}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7658,7 +7706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7771,7 +7819,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7801,7 +7849,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,46 +7861,46 @@
         <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>38753</v>
+        <v>44551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>57750</v>
+        <v>61844</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>96503</v>
+        <v>106395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,46 +7912,46 @@
         <v>284</v>
       </c>
       <c r="D6" s="7">
-        <v>221545</v>
+        <v>266892</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H6" s="7">
         <v>433</v>
       </c>
       <c r="I6" s="7">
-        <v>213653</v>
+        <v>227791</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>717</v>
       </c>
       <c r="N6" s="7">
-        <v>435197</v>
+        <v>494682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,7 +7963,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7930,7 +7978,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7945,7 +7993,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -7992,7 +8040,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8007,7 +8055,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,46 +8067,46 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>30424</v>
+        <v>30831</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
       </c>
       <c r="I9" s="7">
-        <v>46445</v>
+        <v>43193</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>74</v>
       </c>
       <c r="N9" s="7">
-        <v>76869</v>
+        <v>74024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,46 +8118,46 @@
         <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>488873</v>
+        <v>487559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>660</v>
       </c>
       <c r="I10" s="7">
-        <v>506771</v>
+        <v>470532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>1023</v>
       </c>
       <c r="N10" s="7">
-        <v>995645</v>
+        <v>958091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,7 +8169,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -8136,7 +8184,7 @@
         <v>715</v>
       </c>
       <c r="I11" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -8151,7 +8199,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1072514</v>
+        <v>1032115</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -8213,7 +8261,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,46 +8273,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>34256</v>
+        <v>33383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>45371</v>
+        <v>42408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>79627</v>
+        <v>75792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,46 +8324,46 @@
         <v>324</v>
       </c>
       <c r="D14" s="7">
-        <v>287984</v>
+        <v>282667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
       </c>
       <c r="I14" s="7">
-        <v>327369</v>
+        <v>306217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>795</v>
       </c>
       <c r="N14" s="7">
-        <v>615353</v>
+        <v>588883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8375,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -8342,7 +8390,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372740</v>
+        <v>348625</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -8357,7 +8405,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694980</v>
+        <v>664675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -8389,7 +8437,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8419,7 +8467,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,46 +8479,46 @@
         <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>35645</v>
+        <v>34221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>47063</v>
+        <v>43413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
       </c>
       <c r="N17" s="7">
-        <v>82708</v>
+        <v>77634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,46 +8530,46 @@
         <v>258</v>
       </c>
       <c r="D18" s="7">
-        <v>286595</v>
+        <v>278336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>524</v>
       </c>
       <c r="I18" s="7">
-        <v>381493</v>
+        <v>432305</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>782</v>
       </c>
       <c r="N18" s="7">
-        <v>668088</v>
+        <v>710640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8533,7 +8581,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8548,7 +8596,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8563,7 +8611,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8595,7 +8643,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8610,7 +8658,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8625,7 +8673,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,46 +8685,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>8325</v>
+        <v>7348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>6879</v>
+        <v>6149</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>15203</v>
+        <v>13497</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,46 +8736,46 @@
         <v>271</v>
       </c>
       <c r="D22" s="7">
-        <v>188423</v>
+        <v>171394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>478</v>
       </c>
       <c r="I22" s="7">
-        <v>225024</v>
+        <v>202507</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>749</v>
       </c>
       <c r="N22" s="7">
-        <v>413448</v>
+        <v>373901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8787,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8754,7 +8802,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8769,7 +8817,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8801,7 +8849,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8816,7 +8864,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8831,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8843,46 +8891,46 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>23894</v>
+        <v>23192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>37478</v>
+        <v>34748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
       </c>
       <c r="N25" s="7">
-        <v>61372</v>
+        <v>57940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,46 +8942,46 @@
         <v>343</v>
       </c>
       <c r="D26" s="7">
-        <v>253329</v>
+        <v>246444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>397</v>
       </c>
       <c r="I26" s="7">
-        <v>238144</v>
+        <v>222308</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M26" s="7">
         <v>740</v>
       </c>
       <c r="N26" s="7">
-        <v>491473</v>
+        <v>468752</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,7 +8993,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -8960,7 +9008,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -8975,7 +9023,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -9037,7 +9085,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9049,46 +9097,46 @@
         <v>75</v>
       </c>
       <c r="D29" s="7">
-        <v>82202</v>
+        <v>80839</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H29" s="7">
         <v>147</v>
       </c>
       <c r="I29" s="7">
-        <v>105187</v>
+        <v>97396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>222</v>
       </c>
       <c r="N29" s="7">
-        <v>187389</v>
+        <v>178234</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,46 +9148,46 @@
         <v>524</v>
       </c>
       <c r="D30" s="7">
-        <v>545552</v>
+        <v>543440</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>813</v>
       </c>
       <c r="I30" s="7">
-        <v>699016</v>
+        <v>751869</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>1337</v>
       </c>
       <c r="N30" s="7">
-        <v>1244568</v>
+        <v>1295310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,7 +9199,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -9166,7 +9214,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -9181,7 +9229,7 @@
         <v>1559</v>
       </c>
       <c r="N31" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -9213,7 +9261,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9228,7 +9276,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9243,7 +9291,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,46 +9303,46 @@
         <v>16</v>
       </c>
       <c r="D33" s="7">
-        <v>69792</v>
+        <v>260140</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H33" s="7">
         <v>28</v>
       </c>
       <c r="I33" s="7">
-        <v>20200</v>
+        <v>16741</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>382</v>
+        <v>124</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>383</v>
+        <v>143</v>
       </c>
       <c r="M33" s="7">
         <v>44</v>
       </c>
       <c r="N33" s="7">
-        <v>89992</v>
+        <v>276882</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,46 +9354,46 @@
         <v>746</v>
       </c>
       <c r="D34" s="7">
-        <v>789636</v>
+        <v>668580</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="H34" s="7">
         <v>1034</v>
       </c>
       <c r="I34" s="7">
-        <v>848234</v>
+        <v>700990</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="M34" s="7">
         <v>1780</v>
       </c>
       <c r="N34" s="7">
-        <v>1637870</v>
+        <v>1369570</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9357,7 +9405,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -9372,7 +9420,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -9387,7 +9435,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -9434,7 +9482,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9449,7 +9497,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9461,46 +9509,46 @@
         <v>263</v>
       </c>
       <c r="D37" s="7">
-        <v>323291</v>
+        <v>514507</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>551</v>
       </c>
       <c r="I37" s="7">
-        <v>366373</v>
+        <v>345891</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>814</v>
       </c>
       <c r="N37" s="7">
-        <v>689664</v>
+        <v>860399</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9512,46 +9560,46 @@
         <v>3113</v>
       </c>
       <c r="D38" s="7">
-        <v>3061937</v>
+        <v>2945310</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H38" s="7">
         <v>4810</v>
       </c>
       <c r="I38" s="7">
-        <v>3439705</v>
+        <v>3314519</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
         <v>7923</v>
       </c>
       <c r="N38" s="7">
-        <v>6501642</v>
+        <v>6259828</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9563,7 +9611,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9578,7 +9626,7 @@
         <v>5361</v>
       </c>
       <c r="I39" s="7">
-        <v>3806078</v>
+        <v>3660410</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9593,7 +9641,7 @@
         <v>8737</v>
       </c>
       <c r="N39" s="7">
-        <v>7191306</v>
+        <v>7120227</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
